--- a/biology/Botanique/Colli_Euganei_(vignoble)/Colli_Euganei_(vignoble).xlsx
+++ b/biology/Botanique/Colli_Euganei_(vignoble)/Colli_Euganei_(vignoble).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colli Euganei sont un vignoble italien de la région de la Vénétie, doté d'une appellation DOC depuis le 13 août 1969. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Padoue dans les communes de Arquà Petrarca, Galzignano Terme, Torreglia et en partie dans les communes de Abano Terme, Montegrotto Terme, Battaglia Terme, Due Carrare (San Giorgio), Monselice, Baone, Este, Cinto Euganeo, Lozzo Atestino, Vò, Rovolon, Cervarese Santa Croce, Teolo et Selvazzano Dentro dans les monts Euganéens. 
 Le vignoble Bagnoli di Sopra est à quelques kilomètres. La région est située au sud-ouest de Padoue. La superficie planté de vigne est de 1 300 hectares.
@@ -543,7 +557,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont : 
 Garganega
@@ -586,7 +602,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellations, les vins suivants sont autorisés:
 Colli Euganei Cabernet
